--- a/PartsOrderForms.xlsx
+++ b/PartsOrderForms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Documents/senior_year/project/Welding_Feedback_Villanova2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{881D9119-77BA-074A-99E4-98E28E1B0934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F84E8B-F0B7-0A49-A04A-47CC21E86787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="500" windowWidth="28960" windowHeight="20380" xr2:uid="{1BB70C0E-9500-475C-BB83-61B97BCD5975}"/>
   </bookViews>
@@ -510,7 +510,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -594,14 +594,13 @@
         <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
         <v>48.99</v>
       </c>
       <c r="F4" s="2">
-        <f>E4*2</f>
-        <v>97.98</v>
+        <v>48.99</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -636,14 +635,13 @@
         <v>24</v>
       </c>
       <c r="D6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2">
         <v>10.99</v>
       </c>
       <c r="F6" s="2">
-        <f>2*E6</f>
-        <v>21.98</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -677,14 +675,14 @@
         <v>31</v>
       </c>
       <c r="D8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2">
         <v>18.989999999999998</v>
       </c>
       <c r="F8" s="2">
-        <f>E8*3</f>
-        <v>56.97</v>
+        <f>E8*2</f>
+        <v>37.979999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -718,7 +716,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="2">
         <f>SUM(F3:F9)</f>
-        <v>537.89</v>
+        <v>458.92</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">

--- a/PartsOrderForms.xlsx
+++ b/PartsOrderForms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Documents/senior_year/project/Welding_Feedback_Villanova2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F84E8B-F0B7-0A49-A04A-47CC21E86787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7CFDFC-4F91-E044-9E2D-0D430407D3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="500" windowWidth="28960" windowHeight="20380" xr2:uid="{1BB70C0E-9500-475C-BB83-61B97BCD5975}"/>
   </bookViews>
@@ -510,7 +510,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -594,13 +594,14 @@
         <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2">
         <v>48.99</v>
       </c>
       <c r="F4" s="2">
-        <v>48.99</v>
+        <f>E4*D4</f>
+        <v>97.98</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -635,13 +636,14 @@
         <v>24</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2">
         <v>10.99</v>
       </c>
       <c r="F6" s="2">
-        <v>10.99</v>
+        <f>E6*D6</f>
+        <v>21.98</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -675,14 +677,14 @@
         <v>31</v>
       </c>
       <c r="D8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2">
         <v>18.989999999999998</v>
       </c>
       <c r="F8" s="2">
-        <f>E8*2</f>
-        <v>37.979999999999997</v>
+        <f>E8*D8</f>
+        <v>56.97</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -716,7 +718,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="2">
         <f>SUM(F3:F9)</f>
-        <v>458.92</v>
+        <v>537.89</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
